--- a/biology/Botanique/Maxillarieae/Maxillarieae.xlsx
+++ b/biology/Botanique/Maxillarieae/Maxillarieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maxillarieae est une tribu de la sous-famille des Epidendroideae, dans la famille des Orchidaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et biologie[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette tribu forme un groupe monophylétique ayant pour genre type, le genre Maxillaria. De façon simplifiée, on peut considérer que l'ensemble des genres citées dans les huit sous-tribus ci -dessous ont des caractéristiques génétiques ou morphologiques communes. On peut donc supposer que le genre Maxillaria est le plus ancien, qu'il a ensuite évolué en fonction de son habitat pour donner les huit genres représentatifs de chaque sous-tribu et que ces derniers se sont également adaptés pour donner l'ensemble des genres présents dans cette tribu.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des sous-tribus et des genres selon NCBI  (27 avr. 2011)[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique sépare cette tribu en sept sous-tribus. Il existait une huitième sous-tribu, les Eriopsidinae qui a été reclassée au sein de la tribu Cymbidieae depuis 2003.
 			Bifrenariinae: Bifrenaria silvana
@@ -552,28 +568,172 @@
 			Oncidiinae: Oncidium nubigenum
 			Stanhopeinae: Stanhopea shuttleworthii
 			Zygopetalinae: Zygopetalum crinitum
- Sous-tribu Bifrenariinae Dressler (1979)[3].
-Adipe Raf. (1837)[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maxillarieae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maxillarieae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon NCBI  (27 avr. 2011)[2]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sous-tribu Bifrenariinae Dressler (1979)[3].</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Adipe Raf. (1837).
 Bifrenaria Lindl. (1832).
 Hylaeorchis Carnevali &amp; G.A.Romero (2000).
 Rudolfiella Hoehne(1944).
 Teuscheria Garay (1958).
-Sous-tribu Coeliopsidinae Szlach. (1995).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maxillarieae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maxillarieae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon NCBI  (27 avr. 2011)[2]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-tribu Coeliopsidinae Szlach. (1995).</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Coeliopsis Rchb.f. (1872).
 Lycomormium Rchb.f. (1852).
 Peristeria Hook. (1831).
-Sous-tribu Lycastinae Schltr. (1926).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maxillarieae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maxillarieae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon NCBI  (27 avr. 2011)[2]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-tribu Lycastinae Schltr. (1926).</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anguloa Ruiz &amp; Pav. (1794).
-Ida A.Ryan &amp; Oakeley (2003)[5].
+Ida A.Ryan &amp; Oakeley (2003).
 Lycaste Lindl. (1843).
 Neomoorea Rolfe (1904).
 Xylobium Lindl. (1825).
- Sous-tribu Maxillariinae Benth. (1881)[6],[7]. 
-Anthosiphon Schltr. (1920)[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maxillarieae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maxillarieae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon NCBI  (27 avr. 2011)[2]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sous-tribu Maxillariinae Benth. (1881)[6],[7]. </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Anthosiphon Schltr. (1920).
 Brasiliorchis R.B.Singer, S.Koehler &amp; Carnevali (2007).
 Camaridium Lindl. (1824).
 Christensonella Szlach. (2006).
-Chrysocycnis Linden &amp; Rchb.f. (1854)[9].
+Chrysocycnis Linden &amp; Rchb.f. (1854).
 Cryptocentrum Benth. (1881).
 Cyrtidiorchis Rauschert (1982).
 Heterotaxis Lindl. (1826).
@@ -582,17 +742,52 @@
 Mormolyca Fenzl (1850).
 Ornithidium Salisb. ex R.Br. (1813).
 Pityphyllum Schltr. (1920).
-Sepalosaccus Schltr. (1923)[10].
+Sepalosaccus Schltr. (1923).
 Trigonidium Lindl. (1837).
-Sous-tribu Oncidiinae Benth. (1881).
-73 genres dont sept genres ambigus considérés comme des synonymes par les jardins botaniques royaux de Kew. (Cf Références)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Maxillarieae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maxillarieae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon NCBI  (27 avr. 2011)[2]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-tribu Oncidiinae Benth. (1881).</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">73 genres dont sept genres ambigus considérés comme des synonymes par les jardins botaniques royaux de Kew. (Cf Références)
 Ada Lindl. (1853).
 Aspasia Lindl. (1833).
 Brachtia Rchb.f. (1850).
 Brassia R.Br. in W.T.Aiton (1813).
 Capanemia Barb.Rodr. (1877).
 Caucaea Schltr. (1920).
-Chelyorchis Dressler &amp; N.H.Williams (2000)[11].
+Chelyorchis Dressler &amp; N.H.Williams (2000).
 Chytroglossa Rchb.f. (1863).
 Cischweinfia Dressler &amp; N.H.Williams (1970).
 Cochlioda Lindl. (1853).
@@ -605,9 +800,9 @@
 Fernandezia Ruiz &amp; Pav. (1794).
 Gomesa R.Br. (1815).
 Grandiphyllum Docha Neto (2006).
-Helcia Lindl. (1845)[12].
+Helcia Lindl. (1845).
 Hintonella Ames (1938).
-Hirtzia Dodson (1984)[13].
+Hirtzia Dodson (1984).
 Hofmeisterella Rchb.f. (1852).
 Ionopsis Kunth (1816).
 Leochilus Knowles &amp; Westc. (1838).
@@ -617,7 +812,7 @@
 Mesoglossum Halb. (1982).
 Mesospinidium Rchb.f. (1852).
 Miltonia Lindl. (1837).
-Miltonioides Brieger &amp; Lückel (1983)[14].
+Miltonioides Brieger &amp; Lückel (1983).
 Miltoniopsis God.-Leb. (1889).
 Nohawilliamsia M.W.Chase (2009).
 Notylia Lindl. (1825).
@@ -643,10 +838,10 @@
 Seegeriella Senghas (1997).
 Sigmatostalix Rchb.f. (1852).
 Solenidium Lindl. (1846).
-Sphyrastylis Schltr. (1920)[15].
-Stictophyllorchis Dodson &amp; Carnevali (1993)[16].
+Sphyrastylis Schltr. (1920).
+Stictophyllorchis Dodson &amp; Carnevali (1993).
 Sutrina Lindl. (1842).
-Symphyglossum Schltr. (1919)[17].
+Symphyglossum Schltr. (1919).
 Systeloglossum Schltr. (1923).
 Telipogon Kunth (1816).
 Thysanoglossa Porto &amp; Brade (1938 publ. 1940).
@@ -659,8 +854,43 @@
 Warmingia Rchb.f. (1881).
 Zelenkoa M.W.Chase &amp; N.H.Williams (2001).
 Zygostates Lindl. (1837).
-Sous-tribu Stanhopeinae Benth. (1881).
-19 genres sans genre ambigu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Maxillarieae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maxillarieae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon NCBI  (27 avr. 2011)[2]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-tribu Stanhopeinae Benth. (1881).</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 genres sans genre ambigu.
 Acineta Lindl. (1843).
 Braemia Jenny (1985).
 Cirrhaea Lindl. (1825).
@@ -674,17 +904,53 @@
 Lueddemannia Linden &amp; Rchb.f. (1854).
 Paphinia Lindl. (1843).
 Polycycnis Rchb.f. (1855).
-Schlimmia Planch. &amp; Linden (1852)[18].
+Schlimmia Planch. &amp; Linden (1852).
 Sievekingia Rchb.f. (1871).
 Soterosanthus F.Lehm. ex Jenny (1986).
 Stanhopea Frost (1829).
 Trevoria Lehm. (1897).
 Vasqueziella Dodson (1982).
-Sous-tribu Zygopetalinae Schltr. (1926).
-Acacallis Lindl. (1853)[19].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Maxillarieae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maxillarieae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon NCBI  (27 avr. 2011)[2]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-tribu Zygopetalinae Schltr. (1926).</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Acacallis Lindl. (1853).
 Aetheorhyncha Dressler (2005).
 Aganisia Lindl. (1839).
-Batemania  Endl. (1837)[20].
+Batemania  Endl. (1837).
 Benzingia Dodson (2010).
 Chaubardia Rchb.f. (1852).
 Chaubardiella Garay (1969).
